--- a/SchedulingData/dynamic9/pso/scheduling2_18.xlsx
+++ b/SchedulingData/dynamic9/pso/scheduling2_18.xlsx
@@ -462,7 +462,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -470,32 +470,32 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>243.16</v>
+        <v>224.26</v>
       </c>
       <c r="D2" t="n">
-        <v>288.16</v>
+        <v>264.16</v>
       </c>
       <c r="E2" t="n">
-        <v>12.364</v>
+        <v>12.784</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pond7</t>
+          <t>pond57</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>255.04</v>
+        <v>207.38</v>
       </c>
       <c r="D3" t="n">
-        <v>324.42</v>
+        <v>255.38</v>
       </c>
       <c r="E3" t="n">
-        <v>10.728</v>
+        <v>12.652</v>
       </c>
     </row>
     <row r="4">
@@ -504,36 +504,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pond28</t>
+          <t>pond34</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>250.2</v>
+        <v>213.44</v>
       </c>
       <c r="D4" t="n">
-        <v>310.88</v>
+        <v>268.08</v>
       </c>
       <c r="E4" t="n">
-        <v>11.992</v>
+        <v>13.712</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pond27</t>
+          <t>pond28</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>310.88</v>
+        <v>255.38</v>
       </c>
       <c r="D5" t="n">
-        <v>343.78</v>
+        <v>321.16</v>
       </c>
       <c r="E5" t="n">
-        <v>9.832000000000001</v>
+        <v>9.683999999999999</v>
       </c>
     </row>
     <row r="6">
@@ -542,79 +542,79 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pond20</t>
+          <t>pond16</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>202.44</v>
+        <v>262.28</v>
       </c>
       <c r="D6" t="n">
-        <v>258.2</v>
+        <v>317.68</v>
       </c>
       <c r="E6" t="n">
-        <v>11.9</v>
+        <v>11.352</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pond5</t>
+          <t>pond23</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>288.16</v>
+        <v>317.68</v>
       </c>
       <c r="D7" t="n">
-        <v>337.34</v>
+        <v>357.58</v>
       </c>
       <c r="E7" t="n">
-        <v>9.555999999999999</v>
+        <v>8.492000000000001</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pond23</t>
+          <t>pond63</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>258.2</v>
+        <v>245.12</v>
       </c>
       <c r="D8" t="n">
-        <v>307.9</v>
+        <v>304.02</v>
       </c>
       <c r="E8" t="n">
-        <v>9.039999999999999</v>
+        <v>10.808</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pond51</t>
+          <t>pond47</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>242.08</v>
+        <v>357.58</v>
       </c>
       <c r="D9" t="n">
-        <v>289.74</v>
+        <v>396.38</v>
       </c>
       <c r="E9" t="n">
-        <v>10.196</v>
+        <v>6.252</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -622,94 +622,94 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>289.74</v>
+        <v>396.38</v>
       </c>
       <c r="D10" t="n">
-        <v>339.96</v>
+        <v>441.8</v>
       </c>
       <c r="E10" t="n">
-        <v>7.284</v>
+        <v>3.34</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pond11</t>
+          <t>pond8</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>324.42</v>
+        <v>321.16</v>
       </c>
       <c r="D11" t="n">
-        <v>376.34</v>
+        <v>387.76</v>
       </c>
       <c r="E11" t="n">
-        <v>8.135999999999999</v>
+        <v>6.624</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pond19</t>
+          <t>pond13</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>200.98</v>
+        <v>268.08</v>
       </c>
       <c r="D12" t="n">
-        <v>256.38</v>
+        <v>326.74</v>
       </c>
       <c r="E12" t="n">
-        <v>15.392</v>
+        <v>10.956</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pond33</t>
+          <t>pond27</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>307.9</v>
+        <v>326.74</v>
       </c>
       <c r="D13" t="n">
-        <v>384.06</v>
+        <v>369.54</v>
       </c>
       <c r="E13" t="n">
-        <v>5.504</v>
+        <v>8.795999999999999</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pond47</t>
+          <t>pond5</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>256.38</v>
+        <v>264.16</v>
       </c>
       <c r="D14" t="n">
-        <v>314.78</v>
+        <v>313.34</v>
       </c>
       <c r="E14" t="n">
-        <v>13.152</v>
+        <v>9.976000000000001</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -717,51 +717,51 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>337.34</v>
+        <v>313.34</v>
       </c>
       <c r="D15" t="n">
-        <v>410.38</v>
+        <v>386.38</v>
       </c>
       <c r="E15" t="n">
-        <v>6.852</v>
+        <v>7.272</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pond16</t>
+          <t>pond59</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>376.34</v>
+        <v>227.68</v>
       </c>
       <c r="D16" t="n">
-        <v>431.44</v>
+        <v>306.5</v>
       </c>
       <c r="E16" t="n">
-        <v>5.716</v>
+        <v>11.06</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pond13</t>
+          <t>pond11</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>343.78</v>
+        <v>304.02</v>
       </c>
       <c r="D17" t="n">
-        <v>392.54</v>
+        <v>380.94</v>
       </c>
       <c r="E17" t="n">
-        <v>7.076</v>
+        <v>8.215999999999999</v>
       </c>
     </row>
     <row r="18">
@@ -770,17 +770,17 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pond8</t>
+          <t>pond44</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>314.78</v>
+        <v>306.5</v>
       </c>
       <c r="D18" t="n">
-        <v>376.68</v>
+        <v>350.16</v>
       </c>
       <c r="E18" t="n">
-        <v>10.092</v>
+        <v>8.324</v>
       </c>
     </row>
   </sheetData>
